--- a/odoo/odoo_pagos_por_dia.xlsx
+++ b/odoo/odoo_pagos_por_dia.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I51"/>
+  <dimension ref="A1:I118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,13 +486,13 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45667</v>
+        <v>45931</v>
       </c>
       <c r="B2" t="n">
-        <v>412.86</v>
+        <v>175.56</v>
       </c>
       <c r="C2" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
         <v>7</v>
@@ -501,97 +501,97 @@
         <v>2025</v>
       </c>
       <c r="F2" t="n">
+        <v>10</v>
+      </c>
+      <c r="G2" t="n">
         <v>1</v>
       </c>
-      <c r="G2" t="n">
-        <v>10</v>
-      </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-W02</t>
+          <t>2025-W40</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2025-10-01</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45668</v>
+        <v>45932</v>
       </c>
       <c r="B3" t="n">
-        <v>2092.88</v>
+        <v>124.71</v>
       </c>
       <c r="C3" t="n">
-        <v>75</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>72</v>
+        <v>4</v>
       </c>
       <c r="E3" t="n">
         <v>2025</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G3" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-W02</t>
+          <t>2025-W40</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2025-01-11</t>
+          <t>2025-10-02</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45669</v>
+        <v>45933</v>
       </c>
       <c r="B4" t="n">
-        <v>608.36</v>
+        <v>69.26000000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E4" t="n">
         <v>2025</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G4" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-W02</t>
+          <t>2025-W40</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>2025-01-12</t>
+          <t>2025-10-03</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45698</v>
+        <v>45934</v>
       </c>
       <c r="B5" t="n">
-        <v>175.56</v>
+        <v>132.45</v>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>4</v>
@@ -600,661 +600,661 @@
         <v>2025</v>
       </c>
       <c r="F5" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G5" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-W07</t>
+          <t>2025-W40</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>2025-02-10</t>
+          <t>2025-10-04</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45700</v>
+        <v>45936</v>
       </c>
       <c r="B6" t="n">
-        <v>2627.25</v>
+        <v>127.85</v>
       </c>
       <c r="C6" t="n">
-        <v>97</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>88</v>
+        <v>5</v>
       </c>
       <c r="E6" t="n">
         <v>2025</v>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G6" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-W07</t>
+          <t>2025-W41</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>2025-02-12</t>
+          <t>2025-10-06</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45726</v>
+        <v>45937</v>
       </c>
       <c r="B7" t="n">
-        <v>100.02</v>
+        <v>163.21</v>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E7" t="n">
         <v>2025</v>
       </c>
       <c r="F7" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G7" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-W11</t>
+          <t>2025-W41</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>2025-03-10</t>
+          <t>2025-10-07</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45727</v>
+        <v>45938</v>
       </c>
       <c r="B8" t="n">
-        <v>1231.86</v>
+        <v>842.42</v>
       </c>
       <c r="C8" t="n">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="D8" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E8" t="n">
         <v>2025</v>
       </c>
       <c r="F8" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G8" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-W11</t>
+          <t>2025-W41</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>2025-03-11</t>
+          <t>2025-10-08</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45728</v>
+        <v>45939</v>
       </c>
       <c r="B9" t="n">
-        <v>3611.2</v>
+        <v>834.48</v>
       </c>
       <c r="C9" t="n">
-        <v>137</v>
+        <v>30</v>
       </c>
       <c r="D9" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="E9" t="n">
         <v>2025</v>
       </c>
       <c r="F9" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G9" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-W11</t>
+          <t>2025-W41</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>2025-03-12</t>
+          <t>2025-10-09</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45757</v>
+        <v>45940</v>
       </c>
       <c r="B10" t="n">
-        <v>651.6</v>
+        <v>563.5</v>
       </c>
       <c r="C10" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D10" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="E10" t="n">
         <v>2025</v>
       </c>
       <c r="F10" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G10" t="n">
         <v>10</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-W15</t>
+          <t>2025-W41</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2025-10-10</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45758</v>
+        <v>45941</v>
       </c>
       <c r="B11" t="n">
-        <v>948.6900000000001</v>
+        <v>737.59</v>
       </c>
       <c r="C11" t="n">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D11" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E11" t="n">
         <v>2025</v>
       </c>
       <c r="F11" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G11" t="n">
         <v>11</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-W15</t>
+          <t>2025-W41</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-10-11</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45759</v>
+        <v>45943</v>
       </c>
       <c r="B12" t="n">
-        <v>4825.18</v>
+        <v>1579.79</v>
       </c>
       <c r="C12" t="n">
-        <v>152</v>
+        <v>49</v>
       </c>
       <c r="D12" t="n">
-        <v>151</v>
+        <v>49</v>
       </c>
       <c r="E12" t="n">
         <v>2025</v>
       </c>
       <c r="F12" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-W15</t>
+          <t>2025-W42</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>2025-04-12</t>
+          <t>2025-10-13</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45788</v>
+        <v>45944</v>
       </c>
       <c r="B13" t="n">
-        <v>334.16</v>
+        <v>1304.22</v>
       </c>
       <c r="C13" t="n">
+        <v>42</v>
+      </c>
+      <c r="D13" t="n">
+        <v>42</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2025</v>
+      </c>
+      <c r="F13" t="n">
         <v>10</v>
       </c>
-      <c r="D13" t="n">
-        <v>6</v>
-      </c>
-      <c r="E13" t="n">
-        <v>2025</v>
-      </c>
-      <c r="F13" t="n">
-        <v>5</v>
-      </c>
       <c r="G13" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-W19</t>
+          <t>2025-W42</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>2025-05-11</t>
+          <t>2025-10-14</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45789</v>
+        <v>45945</v>
       </c>
       <c r="B14" t="n">
-        <v>1669.81</v>
+        <v>1432.14</v>
       </c>
       <c r="C14" t="n">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="D14" t="n">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="E14" t="n">
         <v>2025</v>
       </c>
       <c r="F14" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G14" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-W20</t>
+          <t>2025-W42</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>2025-05-12</t>
+          <t>2025-10-15</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45818</v>
+        <v>45946</v>
       </c>
       <c r="B15" t="n">
-        <v>386.7</v>
+        <v>1430.28</v>
       </c>
       <c r="C15" t="n">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="D15" t="n">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="E15" t="n">
         <v>2025</v>
       </c>
       <c r="F15" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G15" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-W24</t>
+          <t>2025-W42</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>2025-06-10</t>
+          <t>2025-10-16</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45819</v>
+        <v>45947</v>
       </c>
       <c r="B16" t="n">
-        <v>583.8</v>
+        <v>1238.18</v>
       </c>
       <c r="C16" t="n">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="D16" t="n">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="E16" t="n">
         <v>2025</v>
       </c>
       <c r="F16" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G16" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-W24</t>
+          <t>2025-W42</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>2025-06-11</t>
+          <t>2025-10-17</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45820</v>
+        <v>45948</v>
       </c>
       <c r="B17" t="n">
-        <v>38.5</v>
+        <v>1042.25</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="E17" t="n">
         <v>2025</v>
       </c>
       <c r="F17" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G17" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-W24</t>
+          <t>2025-W42</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>2025-06-12</t>
+          <t>2025-10-18</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45848</v>
+        <v>45950</v>
       </c>
       <c r="B18" t="n">
-        <v>201.71</v>
+        <v>1270.51</v>
       </c>
       <c r="C18" t="n">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="D18" t="n">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="E18" t="n">
         <v>2025</v>
       </c>
       <c r="F18" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G18" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-W28</t>
+          <t>2025-W43</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>2025-07-10</t>
+          <t>2025-10-20</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45849</v>
+        <v>45951</v>
       </c>
       <c r="B19" t="n">
-        <v>670</v>
+        <v>517.46</v>
       </c>
       <c r="C19" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D19" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E19" t="n">
         <v>2025</v>
       </c>
       <c r="F19" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G19" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-W28</t>
+          <t>2025-W43</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>2025-07-11</t>
+          <t>2025-10-21</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45879</v>
+        <v>45952</v>
       </c>
       <c r="B20" t="n">
-        <v>919.42</v>
+        <v>914.84</v>
       </c>
       <c r="C20" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D20" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E20" t="n">
         <v>2025</v>
       </c>
       <c r="F20" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G20" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-W32</t>
+          <t>2025-W43</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>2025-08-10</t>
+          <t>2025-10-22</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45880</v>
+        <v>45953</v>
       </c>
       <c r="B21" t="n">
-        <v>954.87</v>
+        <v>465.23</v>
       </c>
       <c r="C21" t="n">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="D21" t="n">
+        <v>15</v>
+      </c>
+      <c r="E21" t="n">
+        <v>2025</v>
+      </c>
+      <c r="F21" t="n">
+        <v>10</v>
+      </c>
+      <c r="G21" t="n">
         <v>23</v>
       </c>
-      <c r="E21" t="n">
-        <v>2025</v>
-      </c>
-      <c r="F21" t="n">
-        <v>8</v>
-      </c>
-      <c r="G21" t="n">
-        <v>11</v>
-      </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-W33</t>
+          <t>2025-W43</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>2025-08-11</t>
+          <t>2025-10-23</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45881</v>
+        <v>45954</v>
       </c>
       <c r="B22" t="n">
-        <v>739.34</v>
+        <v>990.37</v>
       </c>
       <c r="C22" t="n">
+        <v>39</v>
+      </c>
+      <c r="D22" t="n">
+        <v>39</v>
+      </c>
+      <c r="E22" t="n">
+        <v>2025</v>
+      </c>
+      <c r="F22" t="n">
+        <v>10</v>
+      </c>
+      <c r="G22" t="n">
         <v>24</v>
       </c>
-      <c r="D22" t="n">
-        <v>17</v>
-      </c>
-      <c r="E22" t="n">
-        <v>2025</v>
-      </c>
-      <c r="F22" t="n">
-        <v>8</v>
-      </c>
-      <c r="G22" t="n">
-        <v>12</v>
-      </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-W33</t>
+          <t>2025-W43</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>2025-08-12</t>
+          <t>2025-10-24</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45910</v>
+        <v>45955</v>
       </c>
       <c r="B23" t="n">
-        <v>872.98</v>
+        <v>403.43</v>
       </c>
       <c r="C23" t="n">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="D23" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E23" t="n">
         <v>2025</v>
       </c>
       <c r="F23" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G23" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-W37</t>
+          <t>2025-W43</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>2025-09-10</t>
+          <t>2025-10-25</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45912</v>
+        <v>45957</v>
       </c>
       <c r="B24" t="n">
-        <v>459.21</v>
+        <v>171.12</v>
       </c>
       <c r="C24" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D24" t="n">
+        <v>6</v>
+      </c>
+      <c r="E24" t="n">
+        <v>2025</v>
+      </c>
+      <c r="F24" t="n">
         <v>10</v>
       </c>
-      <c r="E24" t="n">
-        <v>2025</v>
-      </c>
-      <c r="F24" t="n">
-        <v>9</v>
-      </c>
       <c r="G24" t="n">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-W37</t>
+          <t>2025-W44</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2025-10-27</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45940</v>
+        <v>45958</v>
       </c>
       <c r="B25" t="n">
-        <v>679</v>
+        <v>1597.3</v>
       </c>
       <c r="C25" t="n">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="D25" t="n">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="E25" t="n">
         <v>2025</v>
@@ -1263,31 +1263,31 @@
         <v>10</v>
       </c>
       <c r="G25" t="n">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-W41</t>
+          <t>2025-W44</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>2025-10-10</t>
+          <t>2025-10-28</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45941</v>
+        <v>45959</v>
       </c>
       <c r="B26" t="n">
-        <v>1619.96</v>
+        <v>2237.56</v>
       </c>
       <c r="C26" t="n">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="D26" t="n">
-        <v>46</v>
+        <v>81</v>
       </c>
       <c r="E26" t="n">
         <v>2025</v>
@@ -1296,31 +1296,31 @@
         <v>10</v>
       </c>
       <c r="G26" t="n">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-W41</t>
+          <t>2025-W44</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-29</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45942</v>
+        <v>45960</v>
       </c>
       <c r="B27" t="n">
-        <v>862.53</v>
+        <v>2347.12</v>
       </c>
       <c r="C27" t="n">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="D27" t="n">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="E27" t="n">
         <v>2025</v>
@@ -1329,64 +1329,64 @@
         <v>10</v>
       </c>
       <c r="G27" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-W41</t>
+          <t>2025-W44</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>2025-10-12</t>
+          <t>2025-10-30</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45971</v>
+        <v>45961</v>
       </c>
       <c r="B28" t="n">
-        <v>1071.75</v>
+        <v>2320.93</v>
       </c>
       <c r="C28" t="n">
-        <v>35</v>
+        <v>87</v>
       </c>
       <c r="D28" t="n">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="E28" t="n">
         <v>2025</v>
       </c>
       <c r="F28" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G28" t="n">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2025-W46</t>
+          <t>2025-W44</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>2025-11-10</t>
+          <t>2025-10-31</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45972</v>
+        <v>45962</v>
       </c>
       <c r="B29" t="n">
-        <v>2129.75</v>
+        <v>1977.38</v>
       </c>
       <c r="C29" t="n">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="D29" t="n">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="E29" t="n">
         <v>2025</v>
@@ -1395,31 +1395,31 @@
         <v>11</v>
       </c>
       <c r="G29" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2025-W46</t>
+          <t>2025-W44</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>2025-11-11</t>
+          <t>2025-11-01</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45973</v>
+        <v>45964</v>
       </c>
       <c r="B30" t="n">
-        <v>426.65</v>
+        <v>960.66</v>
       </c>
       <c r="C30" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D30" t="n">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="E30" t="n">
         <v>2025</v>
@@ -1428,61 +1428,61 @@
         <v>11</v>
       </c>
       <c r="G30" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2025-W46</t>
+          <t>2025-W45</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>2025-11-12</t>
+          <t>2025-11-03</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>46002</v>
+        <v>45965</v>
       </c>
       <c r="B31" t="n">
-        <v>1550.72</v>
+        <v>768.52</v>
       </c>
       <c r="C31" t="n">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="D31" t="n">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="E31" t="n">
         <v>2025</v>
       </c>
       <c r="F31" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G31" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2025-W50</t>
+          <t>2025-W45</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>2025-12-11</t>
+          <t>2025-11-04</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>46003</v>
+        <v>45966</v>
       </c>
       <c r="B32" t="n">
-        <v>540.47</v>
+        <v>180.16</v>
       </c>
       <c r="C32" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D32" t="n">
         <v>6</v>
@@ -1491,646 +1491,2857 @@
         <v>2025</v>
       </c>
       <c r="F32" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G32" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2025-W50</t>
+          <t>2025-W45</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>2025-12-12</t>
+          <t>2025-11-05</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>46054</v>
+        <v>45967</v>
       </c>
       <c r="B33" t="n">
-        <v>714.76</v>
+        <v>166.35</v>
       </c>
       <c r="C33" t="n">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="D33" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="E33" t="n">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="F33" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="G33" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2026-W05</t>
+          <t>2025-W45</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>2026-02-01</t>
+          <t>2025-11-06</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>46055</v>
+        <v>45968</v>
       </c>
       <c r="B34" t="n">
-        <v>1567.53</v>
+        <v>392.75</v>
       </c>
       <c r="C34" t="n">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="D34" t="n">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="E34" t="n">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="F34" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="G34" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2026-W06</t>
+          <t>2025-W45</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>2026-02-02</t>
+          <t>2025-11-07</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>46082</v>
+        <v>45969</v>
       </c>
       <c r="B35" t="n">
-        <v>809.8</v>
+        <v>728.46</v>
       </c>
       <c r="C35" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D35" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E35" t="n">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="F35" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="G35" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2026-W09</t>
+          <t>2025-W45</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>2026-03-01</t>
+          <t>2025-11-08</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>46083</v>
+        <v>45971</v>
       </c>
       <c r="B36" t="n">
-        <v>1458.22</v>
+        <v>1465.96</v>
       </c>
       <c r="C36" t="n">
         <v>46</v>
       </c>
       <c r="D36" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="E36" t="n">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="F36" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="G36" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2026-W10</t>
+          <t>2025-W46</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>2026-03-02</t>
+          <t>2025-11-10</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>46114</v>
+        <v>45972</v>
       </c>
       <c r="B37" t="n">
-        <v>580.65</v>
+        <v>1629.25</v>
       </c>
       <c r="C37" t="n">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="D37" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="E37" t="n">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="F37" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G37" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2026-W14</t>
+          <t>2025-W46</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>2026-04-02</t>
+          <t>2025-11-11</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>46143</v>
+        <v>45973</v>
       </c>
       <c r="B38" t="n">
-        <v>3857.84</v>
+        <v>1124.06</v>
       </c>
       <c r="C38" t="n">
-        <v>141</v>
+        <v>36</v>
       </c>
       <c r="D38" t="n">
-        <v>130</v>
+        <v>36</v>
       </c>
       <c r="E38" t="n">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="F38" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G38" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2026-W18</t>
+          <t>2025-W46</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>2026-05-01</t>
+          <t>2025-11-12</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>46144</v>
+        <v>45974</v>
       </c>
       <c r="B39" t="n">
-        <v>3155.36</v>
+        <v>1390.31</v>
       </c>
       <c r="C39" t="n">
-        <v>102</v>
+        <v>45</v>
       </c>
       <c r="D39" t="n">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="E39" t="n">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="F39" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G39" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2026-W18</t>
+          <t>2025-W46</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>2026-05-02</t>
+          <t>2025-11-13</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>46174</v>
+        <v>45975</v>
       </c>
       <c r="B40" t="n">
-        <v>3490.65</v>
+        <v>1180.98</v>
       </c>
       <c r="C40" t="n">
-        <v>122</v>
+        <v>39</v>
       </c>
       <c r="D40" t="n">
-        <v>98</v>
+        <v>39</v>
       </c>
       <c r="E40" t="n">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="F40" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G40" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2026-W23</t>
+          <t>2025-W46</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>2026-06-01</t>
+          <t>2025-11-14</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>46175</v>
+        <v>45976</v>
       </c>
       <c r="B41" t="n">
-        <v>4282.2</v>
+        <v>1225.76</v>
       </c>
       <c r="C41" t="n">
-        <v>142</v>
+        <v>42</v>
       </c>
       <c r="D41" t="n">
-        <v>118</v>
+        <v>42</v>
       </c>
       <c r="E41" t="n">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="F41" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G41" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2026-W23</t>
+          <t>2025-W46</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>2026-06-02</t>
+          <t>2025-11-15</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>46204</v>
+        <v>45978</v>
       </c>
       <c r="B42" t="n">
-        <v>4466.63</v>
+        <v>741.99</v>
       </c>
       <c r="C42" t="n">
-        <v>145</v>
+        <v>25</v>
       </c>
       <c r="D42" t="n">
-        <v>129</v>
+        <v>25</v>
       </c>
       <c r="E42" t="n">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="F42" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G42" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2026-W27</t>
+          <t>2025-W47</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>2026-07-01</t>
+          <t>2025-11-17</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>46205</v>
+        <v>45979</v>
       </c>
       <c r="B43" t="n">
-        <v>895.0599999999999</v>
+        <v>805.47</v>
       </c>
       <c r="C43" t="n">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="D43" t="n">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E43" t="n">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="F43" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G43" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2026-W27</t>
+          <t>2025-W47</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>2026-07-02</t>
+          <t>2025-11-18</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>46235</v>
+        <v>45980</v>
       </c>
       <c r="B44" t="n">
-        <v>2665.15</v>
+        <v>703.7</v>
       </c>
       <c r="C44" t="n">
-        <v>85</v>
+        <v>26</v>
       </c>
       <c r="D44" t="n">
-        <v>78</v>
+        <v>26</v>
       </c>
       <c r="E44" t="n">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="F44" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G44" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2026-W31</t>
+          <t>2025-W47</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>2026-08-01</t>
+          <t>2025-11-19</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>46266</v>
+        <v>45981</v>
       </c>
       <c r="B45" t="n">
-        <v>2328.64</v>
+        <v>1048.75</v>
       </c>
       <c r="C45" t="n">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="D45" t="n">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="E45" t="n">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="F45" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G45" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2026-W36</t>
+          <t>2025-W47</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>2026-09-01</t>
+          <t>2025-11-20</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>46267</v>
+        <v>45982</v>
       </c>
       <c r="B46" t="n">
-        <v>1001.11</v>
+        <v>1186.13</v>
       </c>
       <c r="C46" t="n">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="D46" t="n">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="E46" t="n">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="F46" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G46" t="n">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2026-W36</t>
+          <t>2025-W47</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>2026-09-02</t>
+          <t>2025-11-21</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>46296</v>
+        <v>45983</v>
       </c>
       <c r="B47" t="n">
-        <v>455.95</v>
+        <v>226.4</v>
       </c>
       <c r="C47" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D47" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E47" t="n">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="F47" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G47" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2026-W40</t>
+          <t>2025-W47</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>2026-10-01</t>
+          <t>2025-11-22</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>46297</v>
+        <v>45985</v>
       </c>
       <c r="B48" t="n">
-        <v>553.05</v>
+        <v>243.44</v>
       </c>
       <c r="C48" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D48" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="n">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="F48" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G48" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2026-W40</t>
+          <t>2025-W48</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>2026-10-02</t>
+          <t>2025-11-24</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>46328</v>
+        <v>45986</v>
       </c>
       <c r="B49" t="n">
-        <v>340.45</v>
+        <v>1241.24</v>
       </c>
       <c r="C49" t="n">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="D49" t="n">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="E49" t="n">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="F49" t="n">
         <v>11</v>
       </c>
       <c r="G49" t="n">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2026-W45</t>
+          <t>2025-W48</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>2026-11-02</t>
+          <t>2025-11-25</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>46357</v>
+        <v>45987</v>
       </c>
       <c r="B50" t="n">
-        <v>2351.25</v>
+        <v>1849.61</v>
       </c>
       <c r="C50" t="n">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="D50" t="n">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="E50" t="n">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="F50" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G50" t="n">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2026-W49</t>
+          <t>2025-W48</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>2026-12-01</t>
+          <t>2025-11-26</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>46358</v>
+        <v>45988</v>
       </c>
       <c r="B51" t="n">
-        <v>183.39</v>
+        <v>2362.6</v>
       </c>
       <c r="C51" t="n">
+        <v>87</v>
+      </c>
+      <c r="D51" t="n">
+        <v>87</v>
+      </c>
+      <c r="E51" t="n">
+        <v>2025</v>
+      </c>
+      <c r="F51" t="n">
+        <v>11</v>
+      </c>
+      <c r="G51" t="n">
+        <v>27</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>2025-W48</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>2025-11-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45989</v>
+      </c>
+      <c r="B52" t="n">
+        <v>797.65</v>
+      </c>
+      <c r="C52" t="n">
+        <v>29</v>
+      </c>
+      <c r="D52" t="n">
+        <v>29</v>
+      </c>
+      <c r="E52" t="n">
+        <v>2025</v>
+      </c>
+      <c r="F52" t="n">
+        <v>11</v>
+      </c>
+      <c r="G52" t="n">
+        <v>28</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>2025-W48</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>2025-11-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45990</v>
+      </c>
+      <c r="B53" t="n">
+        <v>2255.97</v>
+      </c>
+      <c r="C53" t="n">
+        <v>80</v>
+      </c>
+      <c r="D53" t="n">
+        <v>80</v>
+      </c>
+      <c r="E53" t="n">
+        <v>2025</v>
+      </c>
+      <c r="F53" t="n">
+        <v>11</v>
+      </c>
+      <c r="G53" t="n">
+        <v>29</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>2025-W48</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>2025-11-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45992</v>
+      </c>
+      <c r="B54" t="n">
+        <v>411.25</v>
+      </c>
+      <c r="C54" t="n">
+        <v>14</v>
+      </c>
+      <c r="D54" t="n">
+        <v>14</v>
+      </c>
+      <c r="E54" t="n">
+        <v>2025</v>
+      </c>
+      <c r="F54" t="n">
+        <v>12</v>
+      </c>
+      <c r="G54" t="n">
+        <v>1</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>2025-W49</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45993</v>
+      </c>
+      <c r="B55" t="n">
+        <v>2366.95</v>
+      </c>
+      <c r="C55" t="n">
+        <v>88</v>
+      </c>
+      <c r="D55" t="n">
+        <v>88</v>
+      </c>
+      <c r="E55" t="n">
+        <v>2025</v>
+      </c>
+      <c r="F55" t="n">
+        <v>12</v>
+      </c>
+      <c r="G55" t="n">
+        <v>2</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>2025-W49</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>2025-12-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45994</v>
+      </c>
+      <c r="B56" t="n">
+        <v>2940.95</v>
+      </c>
+      <c r="C56" t="n">
+        <v>100</v>
+      </c>
+      <c r="D56" t="n">
+        <v>100</v>
+      </c>
+      <c r="E56" t="n">
+        <v>2025</v>
+      </c>
+      <c r="F56" t="n">
+        <v>12</v>
+      </c>
+      <c r="G56" t="n">
+        <v>3</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>2025-W49</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45995</v>
+      </c>
+      <c r="B57" t="n">
+        <v>4786.68</v>
+      </c>
+      <c r="C57" t="n">
+        <v>151</v>
+      </c>
+      <c r="D57" t="n">
+        <v>151</v>
+      </c>
+      <c r="E57" t="n">
+        <v>2025</v>
+      </c>
+      <c r="F57" t="n">
+        <v>12</v>
+      </c>
+      <c r="G57" t="n">
+        <v>4</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>2025-W49</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45996</v>
+      </c>
+      <c r="B58" t="n">
+        <v>982.86</v>
+      </c>
+      <c r="C58" t="n">
+        <v>33</v>
+      </c>
+      <c r="D58" t="n">
+        <v>33</v>
+      </c>
+      <c r="E58" t="n">
+        <v>2025</v>
+      </c>
+      <c r="F58" t="n">
+        <v>12</v>
+      </c>
+      <c r="G58" t="n">
+        <v>5</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>2025-W49</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>2025-12-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45997</v>
+      </c>
+      <c r="B59" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="C59" t="n">
+        <v>1</v>
+      </c>
+      <c r="D59" t="n">
+        <v>1</v>
+      </c>
+      <c r="E59" t="n">
+        <v>2025</v>
+      </c>
+      <c r="F59" t="n">
+        <v>12</v>
+      </c>
+      <c r="G59" t="n">
+        <v>6</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>2025-W49</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>2025-12-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45999</v>
+      </c>
+      <c r="B60" t="n">
+        <v>534.49</v>
+      </c>
+      <c r="C60" t="n">
+        <v>17</v>
+      </c>
+      <c r="D60" t="n">
+        <v>17</v>
+      </c>
+      <c r="E60" t="n">
+        <v>2025</v>
+      </c>
+      <c r="F60" t="n">
+        <v>12</v>
+      </c>
+      <c r="G60" t="n">
+        <v>8</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>2025-W50</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>2025-12-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>46000</v>
+      </c>
+      <c r="B61" t="n">
+        <v>278.8</v>
+      </c>
+      <c r="C61" t="n">
+        <v>10</v>
+      </c>
+      <c r="D61" t="n">
+        <v>10</v>
+      </c>
+      <c r="E61" t="n">
+        <v>2025</v>
+      </c>
+      <c r="F61" t="n">
+        <v>12</v>
+      </c>
+      <c r="G61" t="n">
         <v>9</v>
       </c>
-      <c r="D51" t="n">
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>2025-W50</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>2025-12-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>46001</v>
+      </c>
+      <c r="B62" t="n">
+        <v>539.02</v>
+      </c>
+      <c r="C62" t="n">
+        <v>20</v>
+      </c>
+      <c r="D62" t="n">
+        <v>20</v>
+      </c>
+      <c r="E62" t="n">
+        <v>2025</v>
+      </c>
+      <c r="F62" t="n">
+        <v>12</v>
+      </c>
+      <c r="G62" t="n">
+        <v>10</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>2025-W50</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>2025-12-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>46002</v>
+      </c>
+      <c r="B63" t="n">
+        <v>243.35</v>
+      </c>
+      <c r="C63" t="n">
+        <v>8</v>
+      </c>
+      <c r="D63" t="n">
+        <v>8</v>
+      </c>
+      <c r="E63" t="n">
+        <v>2025</v>
+      </c>
+      <c r="F63" t="n">
+        <v>12</v>
+      </c>
+      <c r="G63" t="n">
+        <v>11</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>2025-W50</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>2025-12-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>46003</v>
+      </c>
+      <c r="B64" t="n">
+        <v>201.71</v>
+      </c>
+      <c r="C64" t="n">
+        <v>6</v>
+      </c>
+      <c r="D64" t="n">
+        <v>6</v>
+      </c>
+      <c r="E64" t="n">
+        <v>2025</v>
+      </c>
+      <c r="F64" t="n">
+        <v>12</v>
+      </c>
+      <c r="G64" t="n">
+        <v>12</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>2025-W50</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>2025-12-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>46006</v>
+      </c>
+      <c r="B65" t="n">
+        <v>614.35</v>
+      </c>
+      <c r="C65" t="n">
+        <v>22</v>
+      </c>
+      <c r="D65" t="n">
+        <v>22</v>
+      </c>
+      <c r="E65" t="n">
+        <v>2025</v>
+      </c>
+      <c r="F65" t="n">
+        <v>12</v>
+      </c>
+      <c r="G65" t="n">
+        <v>15</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>2025-W51</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>2025-12-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>46007</v>
+      </c>
+      <c r="B66" t="n">
+        <v>636.11</v>
+      </c>
+      <c r="C66" t="n">
+        <v>24</v>
+      </c>
+      <c r="D66" t="n">
+        <v>24</v>
+      </c>
+      <c r="E66" t="n">
+        <v>2025</v>
+      </c>
+      <c r="F66" t="n">
+        <v>12</v>
+      </c>
+      <c r="G66" t="n">
+        <v>16</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>2025-W51</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>2025-12-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>46008</v>
+      </c>
+      <c r="B67" t="n">
+        <v>1198.24</v>
+      </c>
+      <c r="C67" t="n">
+        <v>47</v>
+      </c>
+      <c r="D67" t="n">
+        <v>47</v>
+      </c>
+      <c r="E67" t="n">
+        <v>2025</v>
+      </c>
+      <c r="F67" t="n">
+        <v>12</v>
+      </c>
+      <c r="G67" t="n">
+        <v>17</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>2025-W51</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>2025-12-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>46009</v>
+      </c>
+      <c r="B68" t="n">
+        <v>397.52</v>
+      </c>
+      <c r="C68" t="n">
+        <v>13</v>
+      </c>
+      <c r="D68" t="n">
+        <v>13</v>
+      </c>
+      <c r="E68" t="n">
+        <v>2025</v>
+      </c>
+      <c r="F68" t="n">
+        <v>12</v>
+      </c>
+      <c r="G68" t="n">
+        <v>18</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>2025-W51</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>2025-12-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>46010</v>
+      </c>
+      <c r="B69" t="n">
+        <v>460.35</v>
+      </c>
+      <c r="C69" t="n">
+        <v>18</v>
+      </c>
+      <c r="D69" t="n">
+        <v>18</v>
+      </c>
+      <c r="E69" t="n">
+        <v>2025</v>
+      </c>
+      <c r="F69" t="n">
+        <v>12</v>
+      </c>
+      <c r="G69" t="n">
+        <v>19</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>2025-W51</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>2025-12-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>46011</v>
+      </c>
+      <c r="B70" t="n">
+        <v>543.62</v>
+      </c>
+      <c r="C70" t="n">
+        <v>19</v>
+      </c>
+      <c r="D70" t="n">
+        <v>19</v>
+      </c>
+      <c r="E70" t="n">
+        <v>2025</v>
+      </c>
+      <c r="F70" t="n">
+        <v>12</v>
+      </c>
+      <c r="G70" t="n">
+        <v>20</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>2025-W51</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>2025-12-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>46013</v>
+      </c>
+      <c r="B71" t="n">
+        <v>782.47</v>
+      </c>
+      <c r="C71" t="n">
+        <v>33</v>
+      </c>
+      <c r="D71" t="n">
+        <v>33</v>
+      </c>
+      <c r="E71" t="n">
+        <v>2025</v>
+      </c>
+      <c r="F71" t="n">
+        <v>12</v>
+      </c>
+      <c r="G71" t="n">
+        <v>22</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>2025-W52</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>2025-12-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>46014</v>
+      </c>
+      <c r="B72" t="n">
+        <v>1895.86</v>
+      </c>
+      <c r="C72" t="n">
+        <v>70</v>
+      </c>
+      <c r="D72" t="n">
+        <v>70</v>
+      </c>
+      <c r="E72" t="n">
+        <v>2025</v>
+      </c>
+      <c r="F72" t="n">
+        <v>12</v>
+      </c>
+      <c r="G72" t="n">
+        <v>23</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>2025-W52</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>2025-12-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>46024</v>
+      </c>
+      <c r="B73" t="n">
+        <v>500.69</v>
+      </c>
+      <c r="C73" t="n">
+        <v>20</v>
+      </c>
+      <c r="D73" t="n">
+        <v>20</v>
+      </c>
+      <c r="E73" t="n">
+        <v>2026</v>
+      </c>
+      <c r="F73" t="n">
+        <v>1</v>
+      </c>
+      <c r="G73" t="n">
+        <v>2</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>2026-W01</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>2026-01-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>46025</v>
+      </c>
+      <c r="B74" t="n">
+        <v>608.29</v>
+      </c>
+      <c r="C74" t="n">
+        <v>25</v>
+      </c>
+      <c r="D74" t="n">
+        <v>25</v>
+      </c>
+      <c r="E74" t="n">
+        <v>2026</v>
+      </c>
+      <c r="F74" t="n">
+        <v>1</v>
+      </c>
+      <c r="G74" t="n">
         <v>3</v>
       </c>
-      <c r="E51" t="n">
-        <v>2026</v>
-      </c>
-      <c r="F51" t="n">
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>2026-W01</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>2026-01-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>46027</v>
+      </c>
+      <c r="B75" t="n">
+        <v>3568.16</v>
+      </c>
+      <c r="C75" t="n">
+        <v>130</v>
+      </c>
+      <c r="D75" t="n">
+        <v>130</v>
+      </c>
+      <c r="E75" t="n">
+        <v>2026</v>
+      </c>
+      <c r="F75" t="n">
+        <v>1</v>
+      </c>
+      <c r="G75" t="n">
+        <v>5</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>2026-W02</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>2026-01-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>46028</v>
+      </c>
+      <c r="B76" t="n">
+        <v>2907.05</v>
+      </c>
+      <c r="C76" t="n">
+        <v>98</v>
+      </c>
+      <c r="D76" t="n">
+        <v>98</v>
+      </c>
+      <c r="E76" t="n">
+        <v>2026</v>
+      </c>
+      <c r="F76" t="n">
+        <v>1</v>
+      </c>
+      <c r="G76" t="n">
+        <v>6</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>2026-W02</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>2026-01-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>46029</v>
+      </c>
+      <c r="B77" t="n">
+        <v>3978.87</v>
+      </c>
+      <c r="C77" t="n">
+        <v>129</v>
+      </c>
+      <c r="D77" t="n">
+        <v>129</v>
+      </c>
+      <c r="E77" t="n">
+        <v>2026</v>
+      </c>
+      <c r="F77" t="n">
+        <v>1</v>
+      </c>
+      <c r="G77" t="n">
+        <v>7</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>2026-W02</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>2026-01-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>46030</v>
+      </c>
+      <c r="B78" t="n">
+        <v>2395.65</v>
+      </c>
+      <c r="C78" t="n">
+        <v>78</v>
+      </c>
+      <c r="D78" t="n">
+        <v>78</v>
+      </c>
+      <c r="E78" t="n">
+        <v>2026</v>
+      </c>
+      <c r="F78" t="n">
+        <v>1</v>
+      </c>
+      <c r="G78" t="n">
+        <v>8</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>2026-W02</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>2026-01-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>46031</v>
+      </c>
+      <c r="B79" t="n">
+        <v>1757.19</v>
+      </c>
+      <c r="C79" t="n">
+        <v>57</v>
+      </c>
+      <c r="D79" t="n">
+        <v>57</v>
+      </c>
+      <c r="E79" t="n">
+        <v>2026</v>
+      </c>
+      <c r="F79" t="n">
+        <v>1</v>
+      </c>
+      <c r="G79" t="n">
+        <v>9</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>2026-W02</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>2026-01-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>46032</v>
+      </c>
+      <c r="B80" t="n">
+        <v>166.35</v>
+      </c>
+      <c r="C80" t="n">
+        <v>6</v>
+      </c>
+      <c r="D80" t="n">
+        <v>6</v>
+      </c>
+      <c r="E80" t="n">
+        <v>2026</v>
+      </c>
+      <c r="F80" t="n">
+        <v>1</v>
+      </c>
+      <c r="G80" t="n">
+        <v>10</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>2026-W02</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>2026-01-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>46034</v>
+      </c>
+      <c r="B81" t="n">
+        <v>1110.42</v>
+      </c>
+      <c r="C81" t="n">
+        <v>37</v>
+      </c>
+      <c r="D81" t="n">
+        <v>37</v>
+      </c>
+      <c r="E81" t="n">
+        <v>2026</v>
+      </c>
+      <c r="F81" t="n">
+        <v>1</v>
+      </c>
+      <c r="G81" t="n">
         <v>12</v>
       </c>
-      <c r="G51" t="n">
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>2026-W03</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>2026-01-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>46035</v>
+      </c>
+      <c r="B82" t="n">
+        <v>689.89</v>
+      </c>
+      <c r="C82" t="n">
+        <v>26</v>
+      </c>
+      <c r="D82" t="n">
+        <v>26</v>
+      </c>
+      <c r="E82" t="n">
+        <v>2026</v>
+      </c>
+      <c r="F82" t="n">
+        <v>1</v>
+      </c>
+      <c r="G82" t="n">
+        <v>13</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>2026-W03</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>2026-01-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>46036</v>
+      </c>
+      <c r="B83" t="n">
+        <v>1059.41</v>
+      </c>
+      <c r="C83" t="n">
+        <v>36</v>
+      </c>
+      <c r="D83" t="n">
+        <v>36</v>
+      </c>
+      <c r="E83" t="n">
+        <v>2026</v>
+      </c>
+      <c r="F83" t="n">
+        <v>1</v>
+      </c>
+      <c r="G83" t="n">
+        <v>14</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>2026-W03</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>2026-01-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>46037</v>
+      </c>
+      <c r="B84" t="n">
+        <v>620.41</v>
+      </c>
+      <c r="C84" t="n">
+        <v>19</v>
+      </c>
+      <c r="D84" t="n">
+        <v>19</v>
+      </c>
+      <c r="E84" t="n">
+        <v>2026</v>
+      </c>
+      <c r="F84" t="n">
+        <v>1</v>
+      </c>
+      <c r="G84" t="n">
+        <v>15</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>2026-W03</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>2026-01-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>46038</v>
+      </c>
+      <c r="B85" t="n">
+        <v>542.23</v>
+      </c>
+      <c r="C85" t="n">
+        <v>17</v>
+      </c>
+      <c r="D85" t="n">
+        <v>17</v>
+      </c>
+      <c r="E85" t="n">
+        <v>2026</v>
+      </c>
+      <c r="F85" t="n">
+        <v>1</v>
+      </c>
+      <c r="G85" t="n">
+        <v>16</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>2026-W03</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>2026-01-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>46039</v>
+      </c>
+      <c r="B86" t="n">
+        <v>977.91</v>
+      </c>
+      <c r="C86" t="n">
+        <v>40</v>
+      </c>
+      <c r="D86" t="n">
+        <v>40</v>
+      </c>
+      <c r="E86" t="n">
+        <v>2026</v>
+      </c>
+      <c r="F86" t="n">
+        <v>1</v>
+      </c>
+      <c r="G86" t="n">
+        <v>17</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>2026-W03</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>2026-01-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>46041</v>
+      </c>
+      <c r="B87" t="n">
+        <v>77</v>
+      </c>
+      <c r="C87" t="n">
         <v>2</v>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2026-W49</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>2026-12-02</t>
+      <c r="D87" t="n">
+        <v>2</v>
+      </c>
+      <c r="E87" t="n">
+        <v>2026</v>
+      </c>
+      <c r="F87" t="n">
+        <v>1</v>
+      </c>
+      <c r="G87" t="n">
+        <v>19</v>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>2026-W04</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>2026-01-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>46042</v>
+      </c>
+      <c r="B88" t="n">
+        <v>666.87</v>
+      </c>
+      <c r="C88" t="n">
+        <v>25</v>
+      </c>
+      <c r="D88" t="n">
+        <v>25</v>
+      </c>
+      <c r="E88" t="n">
+        <v>2026</v>
+      </c>
+      <c r="F88" t="n">
+        <v>1</v>
+      </c>
+      <c r="G88" t="n">
+        <v>20</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>2026-W04</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>2026-01-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>46043</v>
+      </c>
+      <c r="B89" t="n">
+        <v>1170.39</v>
+      </c>
+      <c r="C89" t="n">
+        <v>39</v>
+      </c>
+      <c r="D89" t="n">
+        <v>39</v>
+      </c>
+      <c r="E89" t="n">
+        <v>2026</v>
+      </c>
+      <c r="F89" t="n">
+        <v>1</v>
+      </c>
+      <c r="G89" t="n">
+        <v>21</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>2026-W04</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>2026-01-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>46044</v>
+      </c>
+      <c r="B90" t="n">
+        <v>560.5699999999999</v>
+      </c>
+      <c r="C90" t="n">
+        <v>20</v>
+      </c>
+      <c r="D90" t="n">
+        <v>20</v>
+      </c>
+      <c r="E90" t="n">
+        <v>2026</v>
+      </c>
+      <c r="F90" t="n">
+        <v>1</v>
+      </c>
+      <c r="G90" t="n">
+        <v>22</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>2026-W04</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>2026-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>46045</v>
+      </c>
+      <c r="B91" t="n">
+        <v>1064.11</v>
+      </c>
+      <c r="C91" t="n">
+        <v>40</v>
+      </c>
+      <c r="D91" t="n">
+        <v>40</v>
+      </c>
+      <c r="E91" t="n">
+        <v>2026</v>
+      </c>
+      <c r="F91" t="n">
+        <v>1</v>
+      </c>
+      <c r="G91" t="n">
+        <v>23</v>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>2026-W04</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>2026-01-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>46046</v>
+      </c>
+      <c r="B92" t="n">
+        <v>1222.91</v>
+      </c>
+      <c r="C92" t="n">
+        <v>42</v>
+      </c>
+      <c r="D92" t="n">
+        <v>42</v>
+      </c>
+      <c r="E92" t="n">
+        <v>2026</v>
+      </c>
+      <c r="F92" t="n">
+        <v>1</v>
+      </c>
+      <c r="G92" t="n">
+        <v>24</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>2026-W04</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>2026-01-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>46048</v>
+      </c>
+      <c r="B93" t="n">
+        <v>1153.66</v>
+      </c>
+      <c r="C93" t="n">
+        <v>43</v>
+      </c>
+      <c r="D93" t="n">
+        <v>43</v>
+      </c>
+      <c r="E93" t="n">
+        <v>2026</v>
+      </c>
+      <c r="F93" t="n">
+        <v>1</v>
+      </c>
+      <c r="G93" t="n">
+        <v>26</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>2026-W05</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>2026-01-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>46049</v>
+      </c>
+      <c r="B94" t="n">
+        <v>1172.28</v>
+      </c>
+      <c r="C94" t="n">
+        <v>44</v>
+      </c>
+      <c r="D94" t="n">
+        <v>44</v>
+      </c>
+      <c r="E94" t="n">
+        <v>2026</v>
+      </c>
+      <c r="F94" t="n">
+        <v>1</v>
+      </c>
+      <c r="G94" t="n">
+        <v>27</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>2026-W05</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>2026-01-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>46050</v>
+      </c>
+      <c r="B95" t="n">
+        <v>1694.22</v>
+      </c>
+      <c r="C95" t="n">
+        <v>60</v>
+      </c>
+      <c r="D95" t="n">
+        <v>60</v>
+      </c>
+      <c r="E95" t="n">
+        <v>2026</v>
+      </c>
+      <c r="F95" t="n">
+        <v>1</v>
+      </c>
+      <c r="G95" t="n">
+        <v>28</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>2026-W05</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>2026-01-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>46051</v>
+      </c>
+      <c r="B96" t="n">
+        <v>711.23</v>
+      </c>
+      <c r="C96" t="n">
+        <v>24</v>
+      </c>
+      <c r="D96" t="n">
+        <v>24</v>
+      </c>
+      <c r="E96" t="n">
+        <v>2026</v>
+      </c>
+      <c r="F96" t="n">
+        <v>1</v>
+      </c>
+      <c r="G96" t="n">
+        <v>29</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>2026-W05</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>2026-01-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>46052</v>
+      </c>
+      <c r="B97" t="n">
+        <v>2700.96</v>
+      </c>
+      <c r="C97" t="n">
+        <v>98</v>
+      </c>
+      <c r="D97" t="n">
+        <v>98</v>
+      </c>
+      <c r="E97" t="n">
+        <v>2026</v>
+      </c>
+      <c r="F97" t="n">
+        <v>1</v>
+      </c>
+      <c r="G97" t="n">
+        <v>30</v>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>2026-W05</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>2026-01-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>46053</v>
+      </c>
+      <c r="B98" t="n">
+        <v>1801.63</v>
+      </c>
+      <c r="C98" t="n">
+        <v>69</v>
+      </c>
+      <c r="D98" t="n">
+        <v>69</v>
+      </c>
+      <c r="E98" t="n">
+        <v>2026</v>
+      </c>
+      <c r="F98" t="n">
+        <v>1</v>
+      </c>
+      <c r="G98" t="n">
+        <v>31</v>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>2026-W05</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>2026-01-31</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>46055</v>
+      </c>
+      <c r="B99" t="n">
+        <v>1225.63</v>
+      </c>
+      <c r="C99" t="n">
+        <v>39</v>
+      </c>
+      <c r="D99" t="n">
+        <v>39</v>
+      </c>
+      <c r="E99" t="n">
+        <v>2026</v>
+      </c>
+      <c r="F99" t="n">
+        <v>2</v>
+      </c>
+      <c r="G99" t="n">
+        <v>2</v>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>2026-W06</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>2026-02-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>46056</v>
+      </c>
+      <c r="B100" t="n">
+        <v>842.22</v>
+      </c>
+      <c r="C100" t="n">
+        <v>30</v>
+      </c>
+      <c r="D100" t="n">
+        <v>30</v>
+      </c>
+      <c r="E100" t="n">
+        <v>2026</v>
+      </c>
+      <c r="F100" t="n">
+        <v>2</v>
+      </c>
+      <c r="G100" t="n">
+        <v>3</v>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>2026-W06</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>2026-02-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>46057</v>
+      </c>
+      <c r="B101" t="n">
+        <v>149.4</v>
+      </c>
+      <c r="C101" t="n">
+        <v>5</v>
+      </c>
+      <c r="D101" t="n">
+        <v>5</v>
+      </c>
+      <c r="E101" t="n">
+        <v>2026</v>
+      </c>
+      <c r="F101" t="n">
+        <v>2</v>
+      </c>
+      <c r="G101" t="n">
+        <v>4</v>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>2026-W06</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>2026-02-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>46058</v>
+      </c>
+      <c r="B102" t="n">
+        <v>2822.66</v>
+      </c>
+      <c r="C102" t="n">
+        <v>90</v>
+      </c>
+      <c r="D102" t="n">
+        <v>90</v>
+      </c>
+      <c r="E102" t="n">
+        <v>2026</v>
+      </c>
+      <c r="F102" t="n">
+        <v>2</v>
+      </c>
+      <c r="G102" t="n">
+        <v>5</v>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>2026-W06</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>2026-02-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>46059</v>
+      </c>
+      <c r="B103" t="n">
+        <v>3638.35</v>
+      </c>
+      <c r="C103" t="n">
+        <v>118</v>
+      </c>
+      <c r="D103" t="n">
+        <v>118</v>
+      </c>
+      <c r="E103" t="n">
+        <v>2026</v>
+      </c>
+      <c r="F103" t="n">
+        <v>2</v>
+      </c>
+      <c r="G103" t="n">
+        <v>6</v>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>2026-W06</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>2026-02-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>46060</v>
+      </c>
+      <c r="B104" t="n">
+        <v>437.41</v>
+      </c>
+      <c r="C104" t="n">
+        <v>16</v>
+      </c>
+      <c r="D104" t="n">
+        <v>16</v>
+      </c>
+      <c r="E104" t="n">
+        <v>2026</v>
+      </c>
+      <c r="F104" t="n">
+        <v>2</v>
+      </c>
+      <c r="G104" t="n">
+        <v>7</v>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>2026-W06</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>2026-02-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>46062</v>
+      </c>
+      <c r="B105" t="n">
+        <v>691.64</v>
+      </c>
+      <c r="C105" t="n">
+        <v>20</v>
+      </c>
+      <c r="D105" t="n">
+        <v>20</v>
+      </c>
+      <c r="E105" t="n">
+        <v>2026</v>
+      </c>
+      <c r="F105" t="n">
+        <v>2</v>
+      </c>
+      <c r="G105" t="n">
+        <v>9</v>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>2026-W07</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>46063</v>
+      </c>
+      <c r="B106" t="n">
+        <v>195.65</v>
+      </c>
+      <c r="C106" t="n">
+        <v>9</v>
+      </c>
+      <c r="D106" t="n">
+        <v>9</v>
+      </c>
+      <c r="E106" t="n">
+        <v>2026</v>
+      </c>
+      <c r="F106" t="n">
+        <v>2</v>
+      </c>
+      <c r="G106" t="n">
+        <v>10</v>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>2026-W07</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>2026-02-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>46064</v>
+      </c>
+      <c r="B107" t="n">
+        <v>110.9</v>
+      </c>
+      <c r="C107" t="n">
+        <v>4</v>
+      </c>
+      <c r="D107" t="n">
+        <v>4</v>
+      </c>
+      <c r="E107" t="n">
+        <v>2026</v>
+      </c>
+      <c r="F107" t="n">
+        <v>2</v>
+      </c>
+      <c r="G107" t="n">
+        <v>11</v>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>2026-W07</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>2026-02-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>46065</v>
+      </c>
+      <c r="B108" t="n">
+        <v>81.69</v>
+      </c>
+      <c r="C108" t="n">
+        <v>3</v>
+      </c>
+      <c r="D108" t="n">
+        <v>3</v>
+      </c>
+      <c r="E108" t="n">
+        <v>2026</v>
+      </c>
+      <c r="F108" t="n">
+        <v>2</v>
+      </c>
+      <c r="G108" t="n">
+        <v>12</v>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>2026-W07</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>2026-02-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>46066</v>
+      </c>
+      <c r="B109" t="n">
+        <v>449.66</v>
+      </c>
+      <c r="C109" t="n">
+        <v>13</v>
+      </c>
+      <c r="D109" t="n">
+        <v>13</v>
+      </c>
+      <c r="E109" t="n">
+        <v>2026</v>
+      </c>
+      <c r="F109" t="n">
+        <v>2</v>
+      </c>
+      <c r="G109" t="n">
+        <v>13</v>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>2026-W07</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>2026-02-13</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>46067</v>
+      </c>
+      <c r="B110" t="n">
+        <v>1199.7</v>
+      </c>
+      <c r="C110" t="n">
+        <v>45</v>
+      </c>
+      <c r="D110" t="n">
+        <v>45</v>
+      </c>
+      <c r="E110" t="n">
+        <v>2026</v>
+      </c>
+      <c r="F110" t="n">
+        <v>2</v>
+      </c>
+      <c r="G110" t="n">
+        <v>14</v>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>2026-W07</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>2026-02-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>46069</v>
+      </c>
+      <c r="B111" t="n">
+        <v>862.76</v>
+      </c>
+      <c r="C111" t="n">
+        <v>31</v>
+      </c>
+      <c r="D111" t="n">
+        <v>31</v>
+      </c>
+      <c r="E111" t="n">
+        <v>2026</v>
+      </c>
+      <c r="F111" t="n">
+        <v>2</v>
+      </c>
+      <c r="G111" t="n">
+        <v>16</v>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>2026-W08</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>2026-02-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>46070</v>
+      </c>
+      <c r="B112" t="n">
+        <v>1105.55</v>
+      </c>
+      <c r="C112" t="n">
+        <v>43</v>
+      </c>
+      <c r="D112" t="n">
+        <v>43</v>
+      </c>
+      <c r="E112" t="n">
+        <v>2026</v>
+      </c>
+      <c r="F112" t="n">
+        <v>2</v>
+      </c>
+      <c r="G112" t="n">
+        <v>17</v>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>2026-W08</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>2026-02-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>46071</v>
+      </c>
+      <c r="B113" t="n">
+        <v>836.14</v>
+      </c>
+      <c r="C113" t="n">
+        <v>27</v>
+      </c>
+      <c r="D113" t="n">
+        <v>27</v>
+      </c>
+      <c r="E113" t="n">
+        <v>2026</v>
+      </c>
+      <c r="F113" t="n">
+        <v>2</v>
+      </c>
+      <c r="G113" t="n">
+        <v>18</v>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>2026-W08</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>2026-02-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>46072</v>
+      </c>
+      <c r="B114" t="n">
+        <v>565.26</v>
+      </c>
+      <c r="C114" t="n">
+        <v>21</v>
+      </c>
+      <c r="D114" t="n">
+        <v>21</v>
+      </c>
+      <c r="E114" t="n">
+        <v>2026</v>
+      </c>
+      <c r="F114" t="n">
+        <v>2</v>
+      </c>
+      <c r="G114" t="n">
+        <v>19</v>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>2026-W08</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>2026-02-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>46073</v>
+      </c>
+      <c r="B115" t="n">
+        <v>719.1799999999999</v>
+      </c>
+      <c r="C115" t="n">
+        <v>26</v>
+      </c>
+      <c r="D115" t="n">
+        <v>26</v>
+      </c>
+      <c r="E115" t="n">
+        <v>2026</v>
+      </c>
+      <c r="F115" t="n">
+        <v>2</v>
+      </c>
+      <c r="G115" t="n">
+        <v>20</v>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>2026-W08</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>46074</v>
+      </c>
+      <c r="B116" t="n">
+        <v>55.45</v>
+      </c>
+      <c r="C116" t="n">
+        <v>2</v>
+      </c>
+      <c r="D116" t="n">
+        <v>2</v>
+      </c>
+      <c r="E116" t="n">
+        <v>2026</v>
+      </c>
+      <c r="F116" t="n">
+        <v>2</v>
+      </c>
+      <c r="G116" t="n">
+        <v>21</v>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>2026-W08</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>2026-02-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>46076</v>
+      </c>
+      <c r="B117" t="n">
+        <v>862.48</v>
+      </c>
+      <c r="C117" t="n">
+        <v>33</v>
+      </c>
+      <c r="D117" t="n">
+        <v>33</v>
+      </c>
+      <c r="E117" t="n">
+        <v>2026</v>
+      </c>
+      <c r="F117" t="n">
+        <v>2</v>
+      </c>
+      <c r="G117" t="n">
+        <v>23</v>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>2026-W09</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>2026-02-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>46077</v>
+      </c>
+      <c r="B118" t="n">
+        <v>38.5</v>
+      </c>
+      <c r="C118" t="n">
+        <v>1</v>
+      </c>
+      <c r="D118" t="n">
+        <v>1</v>
+      </c>
+      <c r="E118" t="n">
+        <v>2026</v>
+      </c>
+      <c r="F118" t="n">
+        <v>2</v>
+      </c>
+      <c r="G118" t="n">
+        <v>24</v>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>2026-W09</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>2026-02-24</t>
         </is>
       </c>
     </row>
